--- a/P4_02_Documents_analyse/P4_02_audit_la_chouette_agence.xlsx
+++ b/P4_02_Documents_analyse/P4_02_audit_la_chouette_agence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clement/Documents/formation/Projets/P4_vermeulen_clement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clement/Documents/formation/Projets/P4_vermeulen_clement/P4_02_Documents_analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7A2C9-8361-AE46-8D8D-8809A6F9D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B462D7-18E4-8B41-97F2-F0F272D27C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Catégorie</t>
   </si>
@@ -63,9 +63,6 @@
     <t>La langue ne correspond pas au contenu</t>
   </si>
   <si>
-    <t>La langue indiqué dans la balise "lang" ne correspond pas au contenu</t>
-  </si>
-  <si>
     <t>Utilisation d'image contenant du texte</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t xml:space="preserve">image trop volumineuses / héberger bibliothèque Jquery + bibliothèque javascript trop lourd, version non mis à jour =&gt; problème de sécurité / fichier JS et CSS non minifiés =&gt; trop lourd </t>
   </si>
   <si>
-    <t>Compresser les différentes images et logos du site / Utiliser le CDN fournis par Jquery / minifier les fichiers CSS et Js</t>
-  </si>
-  <si>
     <t>Structure des titres incorrecte</t>
   </si>
   <si>
@@ -102,24 +96,12 @@
     <t>Paramétrer la langue qui correspond au texte</t>
   </si>
   <si>
-    <t>Remplacer "Default" par "Fr"</t>
-  </si>
-  <si>
-    <t>Retranscrire le contenu de l'image en format texte</t>
-  </si>
-  <si>
     <t>Préférez le format jpeg pour les photos et images et les formats svg ou png pour les logos / Utiliser les CDN fournis par les éditeurs / Minifier les fichiers CSS et JS</t>
   </si>
   <si>
-    <t>Réordonner les titres du site</t>
-  </si>
-  <si>
     <t>Les liens vers les réseaux sociaux ne contiennent pas de texte les décrivant, ils ne peuvent donc pas être interprété par les liseuses</t>
   </si>
   <si>
-    <t>Ajouter balises aria-label sur les liens Twitter, Facebook, Dribble et Instagram</t>
-  </si>
-  <si>
     <t>Contenu propriétés "alt" des images est incorrect</t>
   </si>
   <si>
@@ -129,30 +111,15 @@
     <t>Décrire le contenu de l'image dans la balise alt</t>
   </si>
   <si>
-    <t>Supprimer les mots clés et ne laisser que le descriptif de l'image</t>
-  </si>
-  <si>
-    <t>Annuaires de liens en bas de page =&gt; innutiles</t>
-  </si>
-  <si>
     <t>Éventuellement mettre les liens des partenaires</t>
   </si>
   <si>
-    <t>Suppréssion des annuaires</t>
-  </si>
-  <si>
     <t>Titre du site + description mal renseignés</t>
   </si>
   <si>
     <t>La balise &lt;title&gt; contient un "." / La description n'est pas renseignée dans la balise meta</t>
   </si>
   <si>
-    <t>Modifier le titre par : " La chouette agence - Agence web basée à Lyon" / Ajout d'un descriptif de l'activité de l'entreprise dans la balise prévu à cet effet</t>
-  </si>
-  <si>
-    <t>Saisir nom du site avec une courte description dans la balise &lt;title&gt; / Resumer l'activité de l'entreprise dans la balie de description</t>
-  </si>
-  <si>
     <t>Mots clés en 1px autours du logo / Mots clés en bas de page de la même couleur que le fond</t>
   </si>
   <si>
@@ -165,18 +132,9 @@
     <t>N'utiliser pas de texte trop petit ou caché</t>
   </si>
   <si>
-    <t>Suprpréssion des mots clés</t>
-  </si>
-  <si>
-    <t>Ne pa utiliser d'image pour afficher du texte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiérarchie des balises titres non respectée </t>
   </si>
   <si>
-    <t>Modifier la couleur de police / agrandir la taille de police</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour</t>
   </si>
   <si>
@@ -196,13 +154,100 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language#indiquer_la_langue_dans_laquelle_un_document_est_%C3%A9crit%C2%A0liste%20des%20langues</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>La langue indiquée dans la balise "lang" ne correspond pas au contenu</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser d'image pour afficher du texte</t>
+  </si>
+  <si>
+    <t>Saisir nom du site avec une courte description dans la balise &lt;title&gt; / Résumer l'activité de l'entreprise dans la balise de description</t>
+  </si>
+  <si>
+    <t>Annuaires de liens en bas de page =&gt; inutiles</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Messages d’erreur en anglais</t>
+  </si>
+  <si>
+    <t>Le visiteur peut ne pas comprendre une autre langue que sa langue</t>
+  </si>
+  <si>
+    <t>Saisir les messages d’erreur pour qu’il soit lisible dans la langue de l’utilisateur</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/Translations/WCAG20-fr/#meaning</t>
+  </si>
+  <si>
+    <t>Liens hypertexte sans destination</t>
+  </si>
+  <si>
+    <t>Les liens des réseaux sociaux ne renvoient vers aucune destination</t>
+  </si>
+  <si>
+    <t>Saisir l’URL de destination dans l’attribut du lien</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/Translations/WCAG20-fr/#navigation-mechanisms</t>
+  </si>
+  <si>
+    <t>Les champs de saisie n’ont pas de label correspondant</t>
+  </si>
+  <si>
+    <t>Les champs de saisie de texte dans le formulaire de contact doivent avoir un champ label le décrivant</t>
+  </si>
+  <si>
+    <t>Pour chaque champ de saisie, créer un label</t>
+  </si>
+  <si>
+    <t>Les feuilles de style et les fichiers Javascript ne sont pas appelés correctement dans page2.html</t>
+  </si>
+  <si>
+    <t>Les feuilles de style appelées dans page2.html sont les versions minifiées de Bootstrap, font-awesome et et-line ; seules les versions décompressées sont présentes dans le projet. Les fichiers JavaScript de JQuery, Bootstrap et blocs pointent également vers leurs versions minifiées, alors que seules les versions décompressées sont disponibles</t>
+  </si>
+  <si>
+    <t>Contrôler les différents liens vers les fichiers externes</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1605060-mettez-en-place-le-css#/id/r-1609949</t>
+  </si>
+  <si>
+    <t>Le nom de la page de contact est incorrect</t>
+  </si>
+  <si>
+    <t>L’utilisateur ne comprend pas qu’il s’agit d’une page de contact si le nom de la page est un mot générique</t>
+  </si>
+  <si>
+    <t>Ne pas nommer le nom des pages, ainsi que les liens, avec des mots génériques tel que « page X »</t>
+  </si>
+  <si>
+    <t>https://www.webrankinfo.com/dossiers/techniques/url-et-referencement</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>OUI / Sauf CDN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +284,19 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -274,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +373,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -590,7 +663,7 @@
     </row>
     <row r="2" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -599,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3"/>
@@ -613,22 +686,22 @@
     </row>
     <row r="3" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -636,22 +709,22 @@
     </row>
     <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -659,22 +732,22 @@
     </row>
     <row r="5" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -682,185 +755,244 @@
     </row>
     <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    <row r="7" spans="1:26" s="15" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="19" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -903,10 +1035,38 @@
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1879,10 +2039,15 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" location="les_équivalents_textuels" xr:uid="{BA495ABD-4592-AA4E-9CCA-1E966F57F1D7}"/>
-    <hyperlink ref="F8" r:id="rId2" location="/id/r-6055853" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site#/id/r-6055853" xr:uid="{D2C15B93-EFD9-7D41-B0D6-8C85A716877E}"/>
+    <hyperlink ref="F12" r:id="rId2" location="/id/r-6055853" display="https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site#/id/r-6055853" xr:uid="{D2C15B93-EFD9-7D41-B0D6-8C85A716877E}"/>
+    <hyperlink ref="F8" r:id="rId3" location="/id/r-1609949" xr:uid="{252F60B6-A9FE-2B4D-B6EF-D242F8E7308D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
